--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\temis\Documents\0_Universidad\ATL-HEAD\Calculations\Compaction_roller_surface\OpenHertz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034C6DE5-1924-45F8-88B1-D242EE54F2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B69F3F4-CC84-4476-8081-7380FD8B99C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19155" yWindow="2370" windowWidth="19410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Aluminum</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Steel</t>
   </si>
   <si>
-    <t>Carbon Fiber</t>
-  </si>
-  <si>
     <t>E [GPa]</t>
   </si>
   <si>
@@ -66,6 +63,12 @@
   </si>
   <si>
     <t>PUR polyurethane shore 95A</t>
+  </si>
+  <si>
+    <t>Carbon Fiber [0 deg]</t>
+  </si>
+  <si>
+    <t>Carbon Fiber [90 deg]</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,14 +430,15 @@
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -443,15 +447,18 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>2.5999999999999999E-2</v>
@@ -465,13 +472,16 @@
       <c r="E2" s="3">
         <v>157</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>0.5</v>
@@ -485,14 +495,17 @@
       <c r="E3" s="3">
         <v>0.3</v>
       </c>
-      <c r="F3" s="4">
-        <f>1+F2/(2*F5)</f>
+      <c r="F3" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="4">
+        <f>1+G2/(2*G5)</f>
         <v>1.0007281553398057</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>9</v>
@@ -507,26 +520,30 @@
       <c r="E4" s="3">
         <v>2724</v>
       </c>
-      <c r="F4" s="4">
-        <f>(F2*F6)*1000</f>
+      <c r="F4" s="3">
+        <v>111</v>
+      </c>
+      <c r="G4" s="4">
+        <f>(G2*G6)*1000</f>
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="5">
+      <c r="F5" s="1"/>
+      <c r="G5" s="5">
         <v>5.15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -534,7 +551,8 @@
         <v>0.15</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>0.03</v>
       </c>
     </row>
